--- a/2024/06-polanka/06-VKCT2024-Polanka.xlsx
+++ b/2024/06-polanka/06-VKCT2024-Polanka.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Předškoláci I" sheetId="1" state="visible" r:id="rId2"/>
@@ -140,7 +140,7 @@
     <t xml:space="preserve">TUFO cyklo Otrokovice</t>
   </si>
   <si>
-    <t xml:space="preserve">Svrčina Jiří</t>
+    <t xml:space="preserve">Švrčina Jiří</t>
   </si>
   <si>
     <t xml:space="preserve">Bolf Sebastian</t>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">Zemánková Nikol</t>
   </si>
   <si>
-    <t xml:space="preserve">Svrčinová Hana</t>
+    <t xml:space="preserve">Švrčinová Hana</t>
   </si>
   <si>
     <t xml:space="preserve">Švachová Nikol</t>
@@ -4831,7 +4831,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5390,8 +5390,8 @@
   </sheetPr>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6359,7 +6359,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6903,7 +6903,7 @@
   </sheetPr>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
